--- a/jurados.xlsx
+++ b/jurados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743F9FD9-971F-41A4-920F-7D6448F9D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784A2B1-466A-41E5-94CD-76EB6FAA9734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9ECF1E2-7CB0-43A4-B6DE-3CAE1C046061}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Email</t>
   </si>
@@ -102,28 +102,119 @@
     <t>ALARCON GARCIA ROGER ERNESTO</t>
   </si>
   <si>
-    <t>ARANGURI GARCIA MARIA YSABEL</t>
-  </si>
-  <si>
     <t>ZELADA VALDIVIESO HECTOR MIGUEL</t>
+  </si>
+  <si>
+    <t>ARANGURI GARCIA</t>
+  </si>
+  <si>
+    <t>luansegura@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>LUJAN SEGURA EDWAR GLORIMER</t>
+  </si>
+  <si>
+    <t>noblevinces@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>NOBLECILLA VINCES WILLIAM ALFREDO</t>
+  </si>
+  <si>
+    <t>cbravo@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>BRAVO JAICO JESSIE LEILA</t>
+  </si>
+  <si>
+    <t>crojas@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>ROJAS CERNA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>cdiazvidarte@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>DIAZ VIDARTE MIGUEL ORLANDO</t>
+  </si>
+  <si>
+    <t>calarcong@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>vvalquis@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>VALQUI SIPIRAN ALEXANDERS</t>
+  </si>
+  <si>
+    <t>mreyestc@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>REYES BURGOS KARLA</t>
+  </si>
+  <si>
+    <t>croblesp@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>ROBLES PIZARRO LUIS DAVID</t>
+  </si>
+  <si>
+    <t>dsancuchi@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>SANCHEZ CIEZA CYNTHIA NAYELI</t>
+  </si>
+  <si>
+    <t>cgilfernandez@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>GIL FERNANDEZ GENACANGALOS</t>
+  </si>
+  <si>
+    <t>hcanomar@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>CANESSA KIAN</t>
+  </si>
+  <si>
+    <t>cdurbenj@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>DURAND CALLE MAURICIO BENJAMIN</t>
+  </si>
+  <si>
+    <t>junibispo@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>ZUNE BISPO LUIS</t>
+  </si>
+  <si>
+    <t>jcachay@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>CACHAY MACO JUNIOR</t>
+  </si>
+  <si>
+    <t>mvilchez@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>VILCHEZ RIVAS MARLON EUGENIO</t>
+  </si>
+  <si>
+    <t>glipcu@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>LIP CURO GUADALUPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,37 +242,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE4EFEB-B1E6-4AEE-A60F-DD551D222824}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,11 +604,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -550,11 +624,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -570,11 +644,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -590,14 +664,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -610,14 +684,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -630,14 +704,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -650,15 +724,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -670,15 +744,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -690,15 +764,348 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>934567891</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>912345679</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>987654322</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>923456789</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>934567892</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>934567893</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>934567894</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>934567895</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>934567896</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>934567897</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>934567898</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
+        <v>934567899</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>934567900</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>934567901</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>934567902</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>934567903</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>934567904</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{BC3437F5-2E5C-4B4E-87E7-9E080395B819}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{A9A34BB1-D979-423C-8D9D-21E98F4B8935}"/>
-    <hyperlink ref="B2" r:id="rId3" display="http://127.0.0.1:8000/admin/App/profesor/18/change/" xr:uid="{A9758D13-1EE4-4A06-9E41-F53AECA19848}"/>
-    <hyperlink ref="B3" r:id="rId4" display="http://127.0.0.1:8000/admin/App/profesor/18/change/" xr:uid="{00A8BA41-A5DC-4336-9B96-D38CDD6C07B6}"/>
-    <hyperlink ref="B4" r:id="rId5" display="http://127.0.0.1:8000/admin/App/profesor/19/change/" xr:uid="{7A242D8B-C0C6-46C8-A8FB-503472107DBD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jurados.xlsx
+++ b/jurados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784A2B1-466A-41E5-94CD-76EB6FAA9734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8D1FA-806E-4983-8C7A-074440EF6B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9ECF1E2-7CB0-43A4-B6DE-3CAE1C046061}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C9ECF1E2-7CB0-43A4-B6DE-3CAE1C046061}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Email</t>
   </si>
@@ -135,54 +135,18 @@
     <t>cdiazvidarte@usat.edu.pe</t>
   </si>
   <si>
-    <t>DIAZ VIDARTE MIGUEL ORLANDO</t>
-  </si>
-  <si>
     <t>calarcong@usat.edu.pe</t>
   </si>
   <si>
-    <t>vvalquis@usat.edu.pe</t>
-  </si>
-  <si>
     <t>VALQUI SIPIRAN ALEXANDERS</t>
   </si>
   <si>
-    <t>mreyestc@usat.edu.pe</t>
-  </si>
-  <si>
-    <t>REYES BURGOS KARLA</t>
-  </si>
-  <si>
     <t>croblesp@usat.edu.pe</t>
   </si>
   <si>
     <t>ROBLES PIZARRO LUIS DAVID</t>
   </si>
   <si>
-    <t>dsancuchi@usat.edu.pe</t>
-  </si>
-  <si>
-    <t>SANCHEZ CIEZA CYNTHIA NAYELI</t>
-  </si>
-  <si>
-    <t>cgilfernandez@usat.edu.pe</t>
-  </si>
-  <si>
-    <t>GIL FERNANDEZ GENACANGALOS</t>
-  </si>
-  <si>
-    <t>hcanomar@usat.edu.pe</t>
-  </si>
-  <si>
-    <t>CANESSA KIAN</t>
-  </si>
-  <si>
-    <t>cdurbenj@usat.edu.pe</t>
-  </si>
-  <si>
-    <t>DURAND CALLE MAURICIO BENJAMIN</t>
-  </si>
-  <si>
     <t>junibispo@usat.edu.pe</t>
   </si>
   <si>
@@ -192,9 +156,6 @@
     <t>jcachay@usat.edu.pe</t>
   </si>
   <si>
-    <t>CACHAY MACO JUNIOR</t>
-  </si>
-  <si>
     <t>mvilchez@usat.edu.pe</t>
   </si>
   <si>
@@ -205,16 +166,36 @@
   </si>
   <si>
     <t>LIP CURO GUADALUPE</t>
+  </si>
+  <si>
+    <t>hmera@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>DIAZ ESPINO MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>valsipiran@usat.edu.pe</t>
+  </si>
+  <si>
+    <t>CACHAY MACO JUNIOR EUGENIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,10 +224,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -254,8 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE4EFEB-B1E6-4AEE-A60F-DD551D222824}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +565,8 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
@@ -608,8 +595,8 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -852,7 +839,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -869,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -898,10 +885,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="2">
-        <v>934567894</v>
+        <v>934567896</v>
       </c>
       <c r="F16" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,10 +902,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>934567895</v>
+        <v>934567901</v>
       </c>
       <c r="F17" s="2">
         <v>3</v>
@@ -932,13 +919,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2">
-        <v>934567896</v>
+        <v>934567902</v>
       </c>
       <c r="F18" s="2">
         <v>5</v>
@@ -949,19 +936,19 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>934567903</v>
+      </c>
+      <c r="F19" s="2">
         <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>934567897</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,143 +956,47 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>934567898</v>
+        <v>934567904</v>
       </c>
       <c r="F20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>934567899</v>
+        <v>932567904</v>
       </c>
       <c r="F21" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2">
-        <v>934567900</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>934567901</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2">
-        <v>934567902</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2">
-        <v>934567903</v>
-      </c>
-      <c r="F25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="2">
-        <v>934567904</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B3C8684A-CBB9-4663-9E47-ADBAEDABEF3F}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{3B5DA4C3-7109-4F41-A5EF-ADC844CB9EF6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/jurados.xlsx
+++ b/jurados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF8D1FA-806E-4983-8C7A-074440EF6B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F20828-0E79-4C81-9F98-BB2AA0D42543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C9ECF1E2-7CB0-43A4-B6DE-3CAE1C046061}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9ECF1E2-7CB0-43A4-B6DE-3CAE1C046061}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Email</t>
   </si>
@@ -117,9 +117,6 @@
     <t>noblevinces@usat.edu.pe</t>
   </si>
   <si>
-    <t>NOBLECILLA VINCES WILLIAM ALFREDO</t>
-  </si>
-  <si>
     <t>cbravo@usat.edu.pe</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>cdiazvidarte@usat.edu.pe</t>
   </si>
   <si>
-    <t>calarcong@usat.edu.pe</t>
-  </si>
-  <si>
     <t>VALQUI SIPIRAN ALEXANDERS</t>
   </si>
   <si>
@@ -178,6 +172,15 @@
   </si>
   <si>
     <t>CACHAY MACO JUNIOR EUGENIO</t>
+  </si>
+  <si>
+    <t>NOBLECILLA VINCES WILLIAM</t>
+  </si>
+  <si>
+    <t>DIAZ VIDARTE MIGUEL ORLANDO</t>
+  </si>
+  <si>
+    <t>dvidarte@usat.edu.pe</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -771,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -779,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -796,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -816,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>7</v>
@@ -836,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -859,16 +862,16 @@
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
-        <v>934567893</v>
+        <v>934567896</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,13 +885,13 @@
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2">
-        <v>934567896</v>
+        <v>934567901</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,16 +902,16 @@
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2">
-        <v>934567901</v>
+        <v>934567902</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,19 +919,19 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2">
-        <v>934567902</v>
+        <v>934567903</v>
       </c>
       <c r="F18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -942,33 +945,33 @@
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>934567903</v>
+        <v>934567904</v>
       </c>
       <c r="F19" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>934567904</v>
+        <v>932567904</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,27 +979,28 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>932567904</v>
+        <v>933267904</v>
       </c>
       <c r="F21" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B3C8684A-CBB9-4663-9E47-ADBAEDABEF3F}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{3B5DA4C3-7109-4F41-A5EF-ADC844CB9EF6}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{3B5DA4C3-7109-4F41-A5EF-ADC844CB9EF6}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{42EEAE38-ED06-4C31-A271-23B3E3E2427C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>